--- a/src/test/resources/testDataExcelFiles/STCTestData.xlsx
+++ b/src/test/resources/testDataExcelFiles/STCTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20B369C-56DB-429B-8AC2-FD9A90E966AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86728E53-5C6F-48FC-99A9-C702909D8BE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kuwait Functionality test" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="49">
   <si>
     <t>Testcase title</t>
   </si>
@@ -157,6 +157,18 @@
   </si>
   <si>
     <t xml:space="preserve">verify premium package currency is BHD for Bahrain Country </t>
+  </si>
+  <si>
+    <t>COUNTY Flag</t>
+  </si>
+  <si>
+    <t>KUWAIT</t>
+  </si>
+  <si>
+    <t>KSA</t>
+  </si>
+  <si>
+    <t>BAHRAIN</t>
   </si>
 </sst>
 </file>
@@ -213,7 +225,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -388,12 +400,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -460,6 +496,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -741,10 +789,649 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E17" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12" style="8" customWidth="1"/>
+    <col min="2" max="2" width="42.33203125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="12" max="12" width="21.5546875" customWidth="1"/>
+    <col min="13" max="13" width="21.5546875" style="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="4" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" s="22" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="27"/>
+    </row>
+    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="17">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="19">
+        <v>1.2</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="29"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="14">
+        <v>11</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="30"/>
+    </row>
+    <row r="13" spans="1:14" s="22" customFormat="1" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="29"/>
+      <c r="N13" s="27"/>
+    </row>
+    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="19">
+        <v>15</v>
+      </c>
+      <c r="H14" s="20"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="31"/>
+    </row>
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="1">
+        <v>25</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="29"/>
+    </row>
+    <row r="16" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="14">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="1">
+        <v>60</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="29"/>
+    </row>
+    <row r="17" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="29"/>
+    </row>
+    <row r="18" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="14">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" s="29"/>
+    </row>
+    <row r="19" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+    </row>
+    <row r="21" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="14">
+        <v>20</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="30"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+    </row>
+    <row r="22" spans="1:16" s="22" customFormat="1" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="29"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="27"/>
+    </row>
+    <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="14">
+        <v>22</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="19">
+        <v>2</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="31"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+    </row>
+    <row r="24" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="1">
+        <v>3</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="29"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+    </row>
+    <row r="25" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="14">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="1">
+        <v>6</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="29"/>
+    </row>
+    <row r="26" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="L26" s="29"/>
+    </row>
+    <row r="27" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="14">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L27" s="29"/>
+    </row>
+    <row r="28" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050E7463-017B-4EBB-83FC-9BAEF3B4EBD8}">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A2" sqref="A2:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -803,253 +1490,6 @@
     </row>
     <row r="2" spans="1:12" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="14">
-        <v>2</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-    </row>
-    <row r="4" spans="1:12" s="22" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21">
-        <v>3</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="17">
-        <v>4</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="19">
-        <v>1.2</v>
-      </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-    </row>
-    <row r="6" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="1">
-        <v>4.8</v>
-      </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="6">
-        <v>7</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="6">
-        <v>9</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050E7463-017B-4EBB-83FC-9BAEF3B4EBD8}">
-  <dimension ref="A1:L10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12" style="8" customWidth="1"/>
-    <col min="2" max="2" width="42.33203125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="21.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6">
         <v>10</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -1237,8 +1677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3284CE9A-27FF-45A8-A5FD-224769EA6565}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/test/resources/testDataExcelFiles/STCTestData.xlsx
+++ b/src/test/resources/testDataExcelFiles/STCTestData.xlsx
@@ -3,14 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86728E53-5C6F-48FC-99A9-C702909D8BE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35383B82-1C51-4230-AD42-00CA64908CC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Kuwait Functionality test" sheetId="1" r:id="rId1"/>
-    <sheet name="KSA Functionality test" sheetId="2" r:id="rId2"/>
-    <sheet name="Bahrain Functionality test" sheetId="3" r:id="rId3"/>
+    <sheet name="STC Functionality test" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
   <si>
     <t>Testcase title</t>
   </si>
@@ -225,7 +223,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -370,15 +368,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -429,7 +418,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -491,18 +480,16 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -792,7 +779,7 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E17" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -846,7 +833,7 @@
       <c r="K1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="26" t="s">
         <v>24</v>
       </c>
       <c r="M1" s="3" t="s">
@@ -871,7 +858,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="29"/>
+      <c r="L2" s="27"/>
       <c r="M2" s="1" t="s">
         <v>46</v>
       </c>
@@ -894,7 +881,7 @@
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
-      <c r="L3" s="30"/>
+      <c r="L3" s="28"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:14" s="22" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -915,9 +902,9 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="29"/>
+      <c r="L4" s="27"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="27"/>
+      <c r="N4" s="25"/>
     </row>
     <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17">
@@ -937,7 +924,7 @@
       <c r="I5" s="22"/>
       <c r="J5" s="19"/>
       <c r="K5" s="19"/>
-      <c r="L5" s="31"/>
+      <c r="L5" s="29"/>
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -957,7 +944,7 @@
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="29"/>
+      <c r="L6" s="27"/>
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -978,7 +965,7 @@
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="29"/>
+      <c r="L7" s="27"/>
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -999,7 +986,7 @@
         <v>14</v>
       </c>
       <c r="K8" s="1"/>
-      <c r="L8" s="29"/>
+      <c r="L8" s="27"/>
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1020,7 +1007,7 @@
       <c r="K9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="29"/>
+      <c r="L9" s="27"/>
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1039,7 +1026,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="29" t="s">
+      <c r="L10" s="27" t="s">
         <v>14</v>
       </c>
       <c r="M10" s="1"/>
@@ -1062,7 +1049,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="29"/>
+      <c r="L11" s="27"/>
       <c r="M11" s="22" t="s">
         <v>47</v>
       </c>
@@ -1085,7 +1072,7 @@
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
-      <c r="L12" s="30"/>
+      <c r="L12" s="28"/>
     </row>
     <row r="13" spans="1:14" s="22" customFormat="1" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
@@ -1105,8 +1092,8 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="29"/>
-      <c r="N13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="N13" s="25"/>
     </row>
     <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
@@ -1126,7 +1113,7 @@
       <c r="I14" s="22"/>
       <c r="J14" s="19"/>
       <c r="K14" s="19"/>
-      <c r="L14" s="31"/>
+      <c r="L14" s="29"/>
     </row>
     <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
@@ -1145,7 +1132,7 @@
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="29"/>
+      <c r="L15" s="27"/>
     </row>
     <row r="16" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
@@ -1165,7 +1152,7 @@
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="29"/>
+      <c r="L16" s="27"/>
     </row>
     <row r="17" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
@@ -1185,7 +1172,7 @@
         <v>28</v>
       </c>
       <c r="K17" s="1"/>
-      <c r="L17" s="29"/>
+      <c r="L17" s="27"/>
     </row>
     <row r="18" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="14">
@@ -1205,7 +1192,7 @@
       <c r="K18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L18" s="29"/>
+      <c r="L18" s="27"/>
     </row>
     <row r="19" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
@@ -1223,7 +1210,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="29" t="s">
+      <c r="L19" s="27" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1245,12 +1232,12 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="29"/>
+      <c r="L20" s="27"/>
       <c r="M20" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
     </row>
     <row r="21" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="14">
@@ -1270,9 +1257,9 @@
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
-      <c r="L21" s="30"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
+      <c r="L21" s="28"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
     </row>
     <row r="22" spans="1:16" s="22" customFormat="1" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
@@ -1292,10 +1279,10 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="29"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="25"/>
     </row>
     <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="14">
@@ -1315,9 +1302,9 @@
       <c r="I23" s="22"/>
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
-      <c r="L23" s="31"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
+      <c r="L23" s="29"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
     </row>
     <row r="24" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
@@ -1336,9 +1323,9 @@
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="29"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
+      <c r="L24" s="27"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
     </row>
     <row r="25" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="14">
@@ -1358,7 +1345,7 @@
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="29"/>
+      <c r="L25" s="27"/>
     </row>
     <row r="26" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
@@ -1378,7 +1365,7 @@
         <v>35</v>
       </c>
       <c r="K26" s="1"/>
-      <c r="L26" s="29"/>
+      <c r="L26" s="27"/>
     </row>
     <row r="27" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="14">
@@ -1398,7 +1385,7 @@
       <c r="K27" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L27" s="29"/>
+      <c r="L27" s="27"/>
     </row>
     <row r="28" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
@@ -1416,517 +1403,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
-      <c r="L28" s="29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050E7463-017B-4EBB-83FC-9BAEF3B4EBD8}">
-  <dimension ref="A1:L10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12" style="8" customWidth="1"/>
-    <col min="2" max="2" width="42.33203125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="21.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6">
-        <v>10</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14">
-        <v>11</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-    </row>
-    <row r="4" spans="1:12" s="22" customFormat="1" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
-        <v>12</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14">
-        <v>13</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="19">
-        <v>15</v>
-      </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-    </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
-        <v>14</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="1">
-        <v>25</v>
-      </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14">
-        <v>15</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="1">
-        <v>60</v>
-      </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="6">
-        <v>16</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="14">
-        <v>17</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="6">
-        <v>18</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3284CE9A-27FF-45A8-A5FD-224769EA6565}">
-  <dimension ref="A1:P10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12" style="8" customWidth="1"/>
-    <col min="2" max="2" width="42.33203125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="21.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" s="4" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6">
-        <v>19</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-    </row>
-    <row r="3" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14">
-        <v>20</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-    </row>
-    <row r="4" spans="1:16" s="22" customFormat="1" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
-        <v>21</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="27"/>
-    </row>
-    <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14">
-        <v>22</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="19">
-        <v>2</v>
-      </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-    </row>
-    <row r="6" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
-        <v>23</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="1">
-        <v>3</v>
-      </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-    </row>
-    <row r="7" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14">
-        <v>24</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="1">
-        <v>6</v>
-      </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="6">
-        <v>25</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="14">
-        <v>26</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="6">
-        <v>27</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1" t="s">
+      <c r="L28" s="27" t="s">
         <v>35</v>
       </c>
     </row>
